--- a/Ali.xlsx
+++ b/Ali.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CB74C0-9DFE-4336-9DA9-A2B15E10763C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A8A7A3-8295-46DA-A119-3A4F21B9383C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7C839CC7-4A98-4E68-947E-A023DCE2ACEF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="163">
   <si>
     <t>Name</t>
   </si>
@@ -519,6 +519,12 @@
   </si>
   <si>
     <t>Show</t>
+  </si>
+  <si>
+    <t>aaaaaaa</t>
+  </si>
+  <si>
+    <t>bbb</t>
   </si>
 </sst>
 </file>
@@ -907,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C6D60C-6C1A-43C8-A14D-FCCA05E90038}">
-  <dimension ref="B1:G58"/>
+  <dimension ref="B1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1908,6 +1914,17 @@
       </c>
       <c r="F58">
         <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>161</v>
+      </c>
+      <c r="C59">
+        <v>66886897</v>
+      </c>
+      <c r="D59" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/Ali.xlsx
+++ b/Ali.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A8A7A3-8295-46DA-A119-3A4F21B9383C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79014042-7B29-46DC-97FF-2E98C4B76F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7C839CC7-4A98-4E68-947E-A023DCE2ACEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7C839CC7-4A98-4E68-947E-A023DCE2ACEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="164">
   <si>
     <t>Name</t>
   </si>
@@ -525,6 +525,9 @@
   </si>
   <si>
     <t>bbb</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -915,19 +918,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C6D60C-6C1A-43C8-A14D-FCCA05E90038}">
   <dimension ref="B1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -947,7 +950,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -963,8 +966,11 @@
       <c r="F2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -980,8 +986,11 @@
       <c r="F3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -997,8 +1006,11 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -1014,8 +1026,11 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -1031,8 +1046,11 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -1048,8 +1066,11 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -1065,8 +1086,11 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
@@ -1082,8 +1106,11 @@
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>27</v>
       </c>
@@ -1099,8 +1126,11 @@
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>30</v>
       </c>
@@ -1116,8 +1146,11 @@
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>32</v>
       </c>
@@ -1133,8 +1166,11 @@
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -1150,8 +1186,11 @@
       <c r="F13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>38</v>
       </c>
@@ -1167,8 +1206,11 @@
       <c r="F14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>41</v>
       </c>
@@ -1184,8 +1226,11 @@
       <c r="F15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>43</v>
       </c>
@@ -1201,8 +1246,11 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>46</v>
       </c>
@@ -1218,8 +1266,11 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>49</v>
       </c>
@@ -1235,8 +1286,11 @@
       <c r="F18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>51</v>
       </c>
@@ -1252,8 +1306,11 @@
       <c r="F19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>53</v>
       </c>
@@ -1269,8 +1326,11 @@
       <c r="F20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>56</v>
       </c>
@@ -1286,8 +1346,11 @@
       <c r="F21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>59</v>
       </c>
@@ -1303,8 +1366,11 @@
       <c r="F22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>60</v>
       </c>
@@ -1320,8 +1386,11 @@
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>63</v>
       </c>
@@ -1337,8 +1406,11 @@
       <c r="F24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>66</v>
       </c>
@@ -1354,8 +1426,11 @@
       <c r="F25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>69</v>
       </c>
@@ -1371,8 +1446,11 @@
       <c r="F26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>72</v>
       </c>
@@ -1388,8 +1466,11 @@
       <c r="F27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>74</v>
       </c>
@@ -1405,8 +1486,11 @@
       <c r="F28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>76</v>
       </c>
@@ -1422,8 +1506,11 @@
       <c r="F29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>79</v>
       </c>
@@ -1439,8 +1526,11 @@
       <c r="F30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>81</v>
       </c>
@@ -1456,8 +1546,11 @@
       <c r="F31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>84</v>
       </c>
@@ -1473,8 +1566,11 @@
       <c r="F32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>86</v>
       </c>
@@ -1490,8 +1586,11 @@
       <c r="F33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>88</v>
       </c>
@@ -1507,8 +1606,11 @@
       <c r="F34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>91</v>
       </c>
@@ -1524,8 +1626,11 @@
       <c r="F35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>94</v>
       </c>
@@ -1541,8 +1646,11 @@
       <c r="F36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>97</v>
       </c>
@@ -1558,8 +1666,11 @@
       <c r="F37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>99</v>
       </c>
@@ -1575,8 +1686,11 @@
       <c r="F38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>101</v>
       </c>
@@ -1592,8 +1706,11 @@
       <c r="F39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>104</v>
       </c>
@@ -1609,8 +1726,11 @@
       <c r="F40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>107</v>
       </c>
@@ -1626,8 +1746,11 @@
       <c r="F41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>110</v>
       </c>
@@ -1643,8 +1766,11 @@
       <c r="F42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>112</v>
       </c>
@@ -1660,8 +1786,11 @@
       <c r="F43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>115</v>
       </c>
@@ -1677,8 +1806,11 @@
       <c r="F44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>119</v>
       </c>
@@ -1694,8 +1826,11 @@
       <c r="F45">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>122</v>
       </c>
@@ -1711,8 +1846,11 @@
       <c r="F46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>125</v>
       </c>
@@ -1728,8 +1866,11 @@
       <c r="F47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>125</v>
       </c>
@@ -1745,8 +1886,11 @@
       <c r="F48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G48" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>129</v>
       </c>
@@ -1762,8 +1906,11 @@
       <c r="F49">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>132</v>
       </c>
@@ -1779,8 +1926,11 @@
       <c r="F50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G50" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>135</v>
       </c>
@@ -1796,8 +1946,11 @@
       <c r="F51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>138</v>
       </c>
@@ -1813,8 +1966,11 @@
       <c r="F52">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G52" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>141</v>
       </c>
@@ -1830,8 +1986,11 @@
       <c r="F53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G53" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>144</v>
       </c>
@@ -1847,8 +2006,11 @@
       <c r="F54">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G54" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>147</v>
       </c>
@@ -1864,8 +2026,11 @@
       <c r="F55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G55" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>150</v>
       </c>
@@ -1881,8 +2046,11 @@
       <c r="F56">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G56" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>153</v>
       </c>
@@ -1898,8 +2066,11 @@
       <c r="F57">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G57" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>156</v>
       </c>
@@ -1915,8 +2086,11 @@
       <c r="F58">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G58" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>161</v>
       </c>

--- a/Ali.xlsx
+++ b/Ali.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79014042-7B29-46DC-97FF-2E98C4B76F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E1E96B-6C1F-4498-8821-6F184D65C3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7C839CC7-4A98-4E68-947E-A023DCE2ACEF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="162">
   <si>
     <t>Name</t>
   </si>
@@ -519,12 +519,6 @@
   </si>
   <si>
     <t>Show</t>
-  </si>
-  <si>
-    <t>aaaaaaa</t>
-  </si>
-  <si>
-    <t>bbb</t>
   </si>
   <si>
     <t>Yes</t>
@@ -918,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C6D60C-6C1A-43C8-A14D-FCCA05E90038}">
   <dimension ref="B1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G58"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,7 +961,7 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -987,7 +981,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -1007,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -1027,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -1047,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -1067,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -1087,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -1107,7 +1101,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -1127,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -1147,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -1167,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
@@ -1187,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
@@ -1207,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
@@ -1227,7 +1221,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -1247,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -1267,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -1287,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -1307,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -1327,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -1347,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -1367,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -1387,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -1407,7 +1401,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1427,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
@@ -1447,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -1467,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
@@ -1487,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -1507,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -1527,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -1547,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
@@ -1567,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
@@ -1587,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -1607,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
@@ -1627,7 +1621,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
@@ -1647,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
@@ -1667,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
@@ -1687,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
@@ -1707,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
@@ -1727,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
@@ -1747,7 +1741,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
@@ -1767,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
@@ -1787,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
@@ -1807,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
@@ -1827,7 +1821,7 @@
         <v>2</v>
       </c>
       <c r="G45" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
@@ -1847,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="G46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
@@ -1867,7 +1861,7 @@
         <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
@@ -1887,7 +1881,7 @@
         <v>2</v>
       </c>
       <c r="G48" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
@@ -1907,7 +1901,7 @@
         <v>2</v>
       </c>
       <c r="G49" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
@@ -1927,7 +1921,7 @@
         <v>2</v>
       </c>
       <c r="G50" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
@@ -1947,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="G51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
@@ -1967,7 +1961,7 @@
         <v>2</v>
       </c>
       <c r="G52" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
@@ -1987,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="G53" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
@@ -2007,7 +2001,7 @@
         <v>2</v>
       </c>
       <c r="G54" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
@@ -2027,7 +2021,7 @@
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
@@ -2047,7 +2041,7 @@
         <v>2</v>
       </c>
       <c r="G56" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
@@ -2067,7 +2061,7 @@
         <v>2</v>
       </c>
       <c r="G57" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
@@ -2087,18 +2081,27 @@
         <v>4</v>
       </c>
       <c r="G58" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>161</v>
+      <c r="B59" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="C59">
         <v>66886897</v>
       </c>
-      <c r="D59" t="s">
-        <v>162</v>
+      <c r="D59" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="G59" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2160,6 +2163,7 @@
     <hyperlink ref="E58" r:id="rId55" xr:uid="{8626269D-23D5-4028-9A97-4946292E23C3}"/>
     <hyperlink ref="E9" r:id="rId56" xr:uid="{170AD0CE-2121-44C7-8A86-1AD188D7A9CD}"/>
     <hyperlink ref="E25" r:id="rId57" xr:uid="{F40509E6-F766-4413-9E1C-30B702CA55CD}"/>
+    <hyperlink ref="E59" r:id="rId58" xr:uid="{A2E8CF8B-82AD-4F82-9AE9-44C17DDEC653}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
